--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/30.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/30.xlsx
@@ -479,13 +479,13 @@
         <v>-20.20744407489085</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.19376099363958</v>
+        <v>-14.15379019306378</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.4907807781640355</v>
+        <v>-0.5242316119246456</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.50195416142113</v>
+        <v>-10.44864230424962</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.72382525755161</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.39749031815967</v>
+        <v>-14.3614472084364</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4791809978462662</v>
+        <v>-0.517187952995797</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.25326586894255</v>
+        <v>-10.20352821044683</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.18783878456493</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.71605223090455</v>
+        <v>-14.67659203013959</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4032194567585715</v>
+        <v>-0.4381759053459801</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.832976763117456</v>
+        <v>-9.77885318316976</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-18.67052704282876</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.17692747553899</v>
+        <v>-15.13359195313288</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3402847569983943</v>
+        <v>-0.3803864806026013</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.617241796891493</v>
+        <v>-9.56078778703797</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.16458663791069</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.62362375619585</v>
+        <v>-15.57725081953045</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3249405780678914</v>
+        <v>-0.3631308254572063</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.428765005182004</v>
+        <v>-9.369954380816971</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.68935076293566</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.10297224013996</v>
+        <v>-16.04934616770025</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.336095220089042</v>
+        <v>-0.3858852477961262</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.287328857582839</v>
+        <v>-9.228989556120107</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.24562965790754</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.61107142112451</v>
+        <v>-16.55125268944066</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1214338226961014</v>
+        <v>-0.1660785753863873</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.084882578741228</v>
+        <v>-9.026778938729647</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.83192264700397</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.23808798882045</v>
+        <v>-17.17034841391736</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08255734788083251</v>
+        <v>0.03207342812313679</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.108998600575687</v>
+        <v>-9.049899945548136</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.44757355324495</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.66282847761173</v>
+        <v>-17.59048041210835</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2034123954128058</v>
+        <v>0.1591735041106135</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.793447917484405</v>
+        <v>-8.736784430785415</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.07374557305642</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.1958161262984</v>
+        <v>-18.11782527827024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3292556103274768</v>
+        <v>0.2850559959338096</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.717918422390488</v>
+        <v>-8.659003059602721</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.70053185158861</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.71848704034579</v>
+        <v>-18.63857162379989</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4147221632782646</v>
+        <v>0.3647226587257127</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.216601054277955</v>
+        <v>-8.156913245622526</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-15.29704124332667</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.48212178819514</v>
+        <v>-19.39830486540241</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5531863581323595</v>
+        <v>0.4995341010869661</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.630628855990822</v>
+        <v>-7.563478434715608</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.8501274960348</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.30755220545745</v>
+        <v>-20.22322468285389</v>
       </c>
       <c r="F14" t="n">
-        <v>0.796860298622565</v>
+        <v>0.7370808438472438</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.058953452406853</v>
+        <v>-6.982638419142432</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.34730424433451</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.10445449482763</v>
+        <v>-21.01801911146655</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8790275912572378</v>
+        <v>0.8168129681533556</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.517115406999178</v>
+        <v>-6.432774792092778</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.78531271991673</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.9914056431432</v>
+        <v>-21.9073137819908</v>
       </c>
       <c r="F16" t="n">
-        <v>1.126066253577767</v>
+        <v>1.061364092933957</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.015156516047401</v>
+        <v>-5.936890729659562</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.17989565649112</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.62974705279724</v>
+        <v>-22.54764522167678</v>
       </c>
       <c r="F17" t="n">
-        <v>1.303899003076932</v>
+        <v>1.238201827417151</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.89508700668593</v>
+        <v>-5.814163482821222</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.54093459917622</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.41202523989321</v>
+        <v>-23.3275537019584</v>
       </c>
       <c r="F18" t="n">
-        <v>1.630748343520624</v>
+        <v>1.55798132432631</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.496897708057674</v>
+        <v>-5.416196753341274</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.89492082942666</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.21336581992674</v>
+        <v>-24.12500586804794</v>
       </c>
       <c r="F19" t="n">
-        <v>1.882513327167016</v>
+        <v>1.808698923745364</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.241584710341174</v>
+        <v>-5.164667431146033</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.25310127397</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.96506038758444</v>
+        <v>-24.8765956972829</v>
       </c>
       <c r="F20" t="n">
-        <v>2.106548813394632</v>
+        <v>2.032891517607081</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.010557934396076</v>
+        <v>-4.924266566366259</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.63635897192693</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.54455189596493</v>
+        <v>-25.45572062118381</v>
       </c>
       <c r="F21" t="n">
-        <v>2.460093359332603</v>
+        <v>2.389290185564549</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.752626476111231</v>
+        <v>-4.67206953672609</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.06046356075944</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.12158205141116</v>
+        <v>-26.03201760767091</v>
       </c>
       <c r="F22" t="n">
-        <v>2.745584115099282</v>
+        <v>2.681039062089572</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.471547826402213</v>
+        <v>-4.380294475595383</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-9.536567611745006</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.61977035914452</v>
+        <v>-26.53423834467952</v>
       </c>
       <c r="F23" t="n">
-        <v>2.941444965611504</v>
+        <v>2.877947296829132</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.316678976087435</v>
+        <v>-4.228908177836504</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.082161203285262</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.83598974057563</v>
+        <v>-26.74941034188329</v>
       </c>
       <c r="F24" t="n">
-        <v>3.068440303176247</v>
+        <v>3.004235650040422</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.138257072960393</v>
+        <v>-4.049216321333814</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.700354620452455</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.1385790438536</v>
+        <v>-27.05478830566655</v>
       </c>
       <c r="F25" t="n">
-        <v>3.375716650871557</v>
+        <v>3.31088356719933</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.882184721679073</v>
+        <v>-3.796102830494724</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-8.400943175340531</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.10609704050328</v>
+        <v>-27.02290854824695</v>
       </c>
       <c r="F26" t="n">
-        <v>3.459088435367669</v>
+        <v>3.388154338571197</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.844361058769326</v>
+        <v>-3.754979907268862</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.179135834588459</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.03386680572547</v>
+        <v>-26.95350625088296</v>
       </c>
       <c r="F27" t="n">
-        <v>3.467467509186374</v>
+        <v>3.400906241539039</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.78098122071253</v>
+        <v>-3.701170542589368</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.030187357191705</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.94927743706508</v>
+        <v>-26.86628532935138</v>
       </c>
       <c r="F28" t="n">
-        <v>3.526932748693493</v>
+        <v>3.46668197101587</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.775495545821847</v>
+        <v>-3.701916803851347</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-7.946519428188998</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.80149152258768</v>
+        <v>-26.7236839667993</v>
       </c>
       <c r="F29" t="n">
-        <v>3.536699606613421</v>
+        <v>3.478150828305222</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.699259066374476</v>
+        <v>-3.629097415445666</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.913458672559763</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.68444633518265</v>
+        <v>-26.60889065548304</v>
       </c>
       <c r="F30" t="n">
-        <v>3.506089802569465</v>
+        <v>3.452777945397957</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.658489635325341</v>
+        <v>-3.58877312269315</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.924537467846873</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.27836237794083</v>
+        <v>-26.20584411250051</v>
       </c>
       <c r="F31" t="n">
-        <v>3.398549627027528</v>
+        <v>3.348222814903933</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.842017536560657</v>
+        <v>-3.779567252005624</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-7.965418192360316</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.94419444020861</v>
+        <v>-25.87497543508441</v>
       </c>
       <c r="F32" t="n">
-        <v>3.348746507017601</v>
+        <v>3.301247632307819</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.931451057272488</v>
+        <v>-3.869733941676591</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.027949516847576</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.52518838006201</v>
+        <v>-25.45602174414917</v>
       </c>
       <c r="F33" t="n">
-        <v>3.227747444154369</v>
+        <v>3.181191215249191</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.070792436416978</v>
+        <v>-4.025021745682304</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-8.104776964404616</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.06763858034937</v>
+        <v>-25.00075000513099</v>
       </c>
       <c r="F34" t="n">
-        <v>3.144663690320776</v>
+        <v>3.101773306211281</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.985050945106515</v>
+        <v>-3.94663812856889</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-8.18916606987713</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.7097342975651</v>
+        <v>-24.64669485938219</v>
       </c>
       <c r="F35" t="n">
-        <v>2.89151092257316</v>
+        <v>2.847546969630644</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.078752556544748</v>
+        <v>-4.04721319899903</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-8.282356899260561</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.01547566247405</v>
+        <v>-23.95203036290305</v>
       </c>
       <c r="F36" t="n">
-        <v>2.76590336910964</v>
+        <v>2.72911399812439</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.392444132632504</v>
+        <v>-4.364374235339844</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-8.38097272355823</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.58272268434364</v>
+        <v>-23.52287776805411</v>
       </c>
       <c r="F37" t="n">
-        <v>2.612199733747777</v>
+        <v>2.573577440364684</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.465486090186494</v>
+        <v>-4.443595759835128</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.489981250772123</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.20663319291222</v>
+        <v>-23.14983878318481</v>
       </c>
       <c r="F38" t="n">
-        <v>2.553834247679362</v>
+        <v>2.516337892340658</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.574112926864295</v>
+        <v>-4.549460120613325</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.610872489218449</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.72886887761195</v>
+        <v>-22.67377646725397</v>
       </c>
       <c r="F39" t="n">
-        <v>2.514478785337133</v>
+        <v>2.476144522616559</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.504160752780953</v>
+        <v>-4.484103344827429</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.745689854101197</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.36845087268207</v>
+        <v>-22.31512592320772</v>
       </c>
       <c r="F40" t="n">
-        <v>2.503140851076199</v>
+        <v>2.456898837439222</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.554487564904548</v>
+        <v>-4.539457601242247</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.901055665665886</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.85222137163282</v>
+        <v>-21.80000926790001</v>
       </c>
       <c r="F41" t="n">
-        <v>2.583972728821015</v>
+        <v>2.542705790263895</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.485595867351385</v>
+        <v>-4.470801565140235</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-9.075515422108401</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.23152838620942</v>
+        <v>-21.18363674241439</v>
       </c>
       <c r="F42" t="n">
-        <v>2.707904467520794</v>
+        <v>2.66888940505245</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.49761460136009</v>
+        <v>-4.481615807287501</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-9.275125129133905</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.57929604324031</v>
+        <v>-20.53225539912999</v>
       </c>
       <c r="F43" t="n">
-        <v>2.819058118647048</v>
+        <v>2.779493179459352</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.49413204880419</v>
+        <v>-4.47448050223876</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-9.496018652891296</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.32395686091813</v>
+        <v>-20.279547769679</v>
       </c>
       <c r="F44" t="n">
-        <v>2.767134045576763</v>
+        <v>2.730789812888131</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.576155326107605</v>
+        <v>-4.558873486356526</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-9.738634531330066</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.88326994726563</v>
+        <v>-19.84242196239945</v>
       </c>
       <c r="F45" t="n">
-        <v>2.846761431460141</v>
+        <v>2.806725169370142</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.557878471340555</v>
+        <v>-4.543241276763506</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-9.997928280485484</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.53199036971928</v>
+        <v>-19.48930946245525</v>
       </c>
       <c r="F46" t="n">
-        <v>2.887452308692225</v>
+        <v>2.848411061618198</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.654787696975012</v>
+        <v>-4.649590052746846</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.26488403721442</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.04736568772995</v>
+        <v>-19.00926708646052</v>
       </c>
       <c r="F47" t="n">
-        <v>2.9186643586669</v>
+        <v>2.881429849385031</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.964368289970466</v>
+        <v>-4.962247336910107</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.53720329405698</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.59043122625086</v>
+        <v>-18.55372040908266</v>
       </c>
       <c r="F48" t="n">
-        <v>2.882739079669204</v>
+        <v>2.848201584772731</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.090211504885137</v>
+        <v>-5.088915366903806</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.80310258448367</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.12434524508542</v>
+        <v>-18.0814810455816</v>
       </c>
       <c r="F49" t="n">
-        <v>2.911123192230066</v>
+        <v>2.877292681687046</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.3446342260084</v>
+        <v>-5.340680350550199</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-11.06279814167396</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.63567504151799</v>
+        <v>-17.59481396434897</v>
       </c>
       <c r="F50" t="n">
-        <v>2.967524832872222</v>
+        <v>2.927069617091289</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.426880072460123</v>
+        <v>-5.435900669118072</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-11.31010190609866</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.94682352750057</v>
+        <v>-16.90409025102518</v>
       </c>
       <c r="F51" t="n">
-        <v>2.947127025044813</v>
+        <v>2.903765318033016</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.643583869096373</v>
+        <v>-5.652905588719682</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.54670835002775</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.57017106704696</v>
+        <v>-16.52865537473584</v>
       </c>
       <c r="F52" t="n">
-        <v>2.825473347039494</v>
+        <v>2.785986961668848</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.795009443763776</v>
+        <v>-5.793399090514244</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.77331068354501</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.14825851566949</v>
+        <v>-16.10425528581845</v>
       </c>
       <c r="F53" t="n">
-        <v>2.892401199166398</v>
+        <v>2.855428535941364</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852406099421904</v>
+        <v>-5.852916699232731</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.98938967603966</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.87665869321789</v>
+        <v>-15.82681629629943</v>
       </c>
       <c r="F54" t="n">
-        <v>2.648491597225041</v>
+        <v>2.613168564158064</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.083956567480671</v>
+        <v>-6.088735258017901</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-12.20298772070471</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.54154810968106</v>
+        <v>-15.48819697560103</v>
       </c>
       <c r="F55" t="n">
-        <v>2.487665749117278</v>
+        <v>2.45126914721728</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.2944415202671</v>
+        <v>-6.304535685758071</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.41046499179954</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.13873722814968</v>
+        <v>-15.07963857312213</v>
       </c>
       <c r="F56" t="n">
-        <v>2.432782815604762</v>
+        <v>2.396307659887714</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.496913983714395</v>
+        <v>-6.498576706175293</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.61666014671147</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.59826078223754</v>
+        <v>-14.53964654241514</v>
       </c>
       <c r="F57" t="n">
-        <v>2.392746553514764</v>
+        <v>2.350275123096205</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.763460177269096</v>
+        <v>-6.765829884083448</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.81602900873504</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.35060678168345</v>
+        <v>-14.2884314354881</v>
       </c>
       <c r="F58" t="n">
-        <v>2.215502957643477</v>
+        <v>2.171539004700961</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721185131393162</v>
+        <v>-6.722140869500608</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-13.00957402154585</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.97636330495271</v>
+        <v>-13.91184443654869</v>
       </c>
       <c r="F59" t="n">
-        <v>2.269652722196856</v>
+        <v>2.220059079032398</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.856899942650495</v>
+        <v>-6.859858803092725</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.19585357731166</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.86638796108221</v>
+        <v>-13.79761409425463</v>
       </c>
       <c r="F60" t="n">
-        <v>2.088978942981036</v>
+        <v>2.039437669027945</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821485263463625</v>
+        <v>-6.821315063526683</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.37213704452676</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.5372736522469</v>
+        <v>-13.46967809267507</v>
       </c>
       <c r="F61" t="n">
-        <v>1.967691849455286</v>
+        <v>1.917574514177158</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.155090232173647</v>
+        <v>-7.149133234380662</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.54378187317397</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.24043186991645</v>
+        <v>-13.16576646681009</v>
       </c>
       <c r="F62" t="n">
-        <v>1.890185416632267</v>
+        <v>1.837606728419895</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.192154541518573</v>
+        <v>-7.193345941077171</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.70589759173913</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.9134385141415</v>
+        <v>-12.83813158819589</v>
       </c>
       <c r="F63" t="n">
-        <v>1.821581749741623</v>
+        <v>1.769317276797452</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.316295757063821</v>
+        <v>-7.311451605012381</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.86517394797697</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.67231757270543</v>
+        <v>-12.59280801754763</v>
       </c>
       <c r="F64" t="n">
-        <v>1.707050284482203</v>
+        <v>1.65271722768904</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.492793091673129</v>
+        <v>-7.500491365744065</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.01808408592</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.46140057392522</v>
+        <v>-12.38021520400368</v>
       </c>
       <c r="F65" t="n">
-        <v>1.622945331026955</v>
+        <v>1.581076146539115</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730915895758443</v>
+        <v>-7.730064896073731</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.16741132165048</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.22626281488782</v>
+        <v>-12.14353255323095</v>
       </c>
       <c r="F66" t="n">
-        <v>1.554079818079476</v>
+        <v>1.512027341351851</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.848471682974302</v>
+        <v>-7.853394388842791</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.31117416586914</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.04609963548283</v>
+        <v>-11.96254455874693</v>
       </c>
       <c r="F67" t="n">
-        <v>1.61456625720825</v>
+        <v>1.555650894420483</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.818320109529806</v>
+        <v>-7.814745910854016</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.44560019255653</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.95750402215287</v>
+        <v>-11.87091153115769</v>
       </c>
       <c r="F68" t="n">
-        <v>1.469372618693508</v>
+        <v>1.421847559378042</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.826123122023476</v>
+        <v>-7.831019643286281</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.57211103595863</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.80906349253338</v>
+        <v>-11.72182947869896</v>
       </c>
       <c r="F69" t="n">
-        <v>1.365524472552937</v>
+        <v>1.305234417966788</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.898719941280846</v>
+        <v>-7.903616462543652</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.68093017984414</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.71224591301882</v>
+        <v>-11.61918582441983</v>
       </c>
       <c r="F70" t="n">
-        <v>1.41037870208869</v>
+        <v>1.3537152153897</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.838835748082792</v>
+        <v>-7.846193622279841</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.77379004407563</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.44289796665599</v>
+        <v>-11.35270509237933</v>
       </c>
       <c r="F71" t="n">
-        <v>1.349761339931499</v>
+        <v>1.291827899856861</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.687672019472222</v>
+        <v>-7.706040520359164</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.84282839263983</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.38624757225984</v>
+        <v>-11.29694497457642</v>
       </c>
       <c r="F72" t="n">
-        <v>1.399512090730058</v>
+        <v>1.344812449457326</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.693458817328265</v>
+        <v>-7.707179550706394</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.88849892216663</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.34567452575333</v>
+        <v>-11.2779873200616</v>
       </c>
       <c r="F73" t="n">
-        <v>1.372934715961354</v>
+        <v>1.318025597843155</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.569919847713738</v>
+        <v>-7.594847592324384</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.90868808878102</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.54152228396271</v>
+        <v>-11.47336375536868</v>
       </c>
       <c r="F74" t="n">
-        <v>1.418888698935812</v>
+        <v>1.365707764792721</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.458844750404534</v>
+        <v>-7.479033081386476</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.90148896887612</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.67032435931961</v>
+        <v>-11.60185161545738</v>
       </c>
       <c r="F75" t="n">
-        <v>1.35075635494747</v>
+        <v>1.297575420804379</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.331417366846014</v>
+        <v>-7.34724596098166</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.87188450227799</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.00400788184668</v>
+        <v>-11.94143976656607</v>
       </c>
       <c r="F76" t="n">
-        <v>1.374374869273944</v>
+        <v>1.324597933869701</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.128408118982209</v>
+        <v>-7.155535370470266</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.81531398187938</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.6147638094132</v>
+        <v>-12.5549581700322</v>
       </c>
       <c r="F77" t="n">
-        <v>1.349211463212146</v>
+        <v>1.298007466798156</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.962764303428691</v>
+        <v>-6.9813422811611</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-14.73899189170623</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.14260618308307</v>
+        <v>-13.0856022965102</v>
       </c>
       <c r="F78" t="n">
-        <v>1.378302560126462</v>
+        <v>1.325409656645888</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.833320705232546</v>
+        <v>-6.840508379492653</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-14.63951523360254</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.63778326116284</v>
+        <v>-13.58128997440079</v>
       </c>
       <c r="F79" t="n">
-        <v>1.437270292125596</v>
+        <v>1.385477142083727</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.661942461034352</v>
+        <v>-6.663238599015682</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-14.52131209086122</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.19548917761468</v>
+        <v>-14.13972905981177</v>
       </c>
       <c r="F80" t="n">
-        <v>1.419412391049481</v>
+        <v>1.374898561387613</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.391010346027672</v>
+        <v>-6.398656250887241</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-14.38477628764013</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.97923370262893</v>
+        <v>-14.92439004602494</v>
       </c>
       <c r="F81" t="n">
-        <v>1.48364322879099</v>
+        <v>1.436406200138042</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.278259433954728</v>
+        <v>-6.281624155785051</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-14.2290778423172</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.73219822366228</v>
+        <v>-15.6792398586675</v>
       </c>
       <c r="F82" t="n">
-        <v>1.51391263296106</v>
+        <v>1.471336464119767</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.192452481130054</v>
+        <v>-6.19696932561045</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-14.05836014486459</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.60130456320458</v>
+        <v>-16.54775704458192</v>
       </c>
       <c r="F83" t="n">
-        <v>1.47136264872545</v>
+        <v>1.426901188274949</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.930789716535317</v>
+        <v>-5.937951206189742</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-13.86758964949849</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.67115518221907</v>
+        <v>-17.61887761697206</v>
       </c>
       <c r="F84" t="n">
-        <v>1.552089788047533</v>
+        <v>1.513022356367823</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.746502461735181</v>
+        <v>-5.747929522744929</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-13.66365677890989</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.48256374313788</v>
+        <v>-18.43124191599832</v>
       </c>
       <c r="F85" t="n">
-        <v>1.545334159781203</v>
+        <v>1.503648267533147</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.542445829644039</v>
+        <v>-5.538635969517097</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-13.4423107741761</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.57306092373377</v>
+        <v>-19.51718297520529</v>
       </c>
       <c r="F86" t="n">
-        <v>1.540594746152498</v>
+        <v>1.499511099835162</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.243286709710598</v>
+        <v>-5.242553540751461</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-13.20899781825551</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.63275191574308</v>
+        <v>-20.57637645970661</v>
       </c>
       <c r="F87" t="n">
-        <v>1.553739418205591</v>
+        <v>1.527607181733506</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.966868919813236</v>
+        <v>-4.972786640697696</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-12.96453829522661</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.99406338062007</v>
+        <v>-21.93921972401608</v>
       </c>
       <c r="F88" t="n">
-        <v>1.607941551970337</v>
+        <v>1.578667162816237</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.66001152580886</v>
+        <v>-4.659867510477601</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-12.70904140248127</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.45660453106929</v>
+        <v>-23.40821537976627</v>
       </c>
       <c r="F89" t="n">
-        <v>1.404958488712216</v>
+        <v>1.370185332364591</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.318145314005709</v>
+        <v>-4.321379112807615</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-12.4454462368797</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.94430908758031</v>
+        <v>-24.89737318189272</v>
       </c>
       <c r="F90" t="n">
-        <v>1.252956852719776</v>
+        <v>1.223119494543482</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.128817522611508</v>
+        <v>-4.126068139014746</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.16753941639043</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.59777529037042</v>
+        <v>-26.55163801515618</v>
       </c>
       <c r="F91" t="n">
-        <v>1.085912160762193</v>
+        <v>1.059059847633813</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.086712676672517</v>
+        <v>-4.088650337493092</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-11.87858326060427</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.29339870831089</v>
+        <v>-28.25532629164715</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9992934851613335</v>
+        <v>0.9753083863552914</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.839595460534938</v>
+        <v>-3.84332676684483</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-11.56967027001089</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.18442474616412</v>
+        <v>-30.14967777442218</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8754533925814466</v>
+        <v>0.8526466010311599</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.878859276757274</v>
+        <v>-3.886426627799792</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-11.24127647080782</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.32256800015493</v>
+        <v>-32.29261281125306</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7830741037302276</v>
+        <v>0.7619693115493651</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.914129940612884</v>
+        <v>-3.924957275062992</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-10.89046267942967</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.4114056416438</v>
+        <v>-34.38605894334221</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3723423789795973</v>
+        <v>0.3507008023822241</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.917036431843747</v>
+        <v>-3.929251550395078</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-10.51458869892531</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.42734534090994</v>
+        <v>-36.40561211819267</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09481174334068811</v>
+        <v>0.06890207601691221</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.095497611879315</v>
+        <v>-4.104976439136725</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.12090368007483</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.5591388280225</v>
+        <v>-38.54083578864977</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2351273805736505</v>
+        <v>-0.2569129725022827</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.17721976621737</v>
+        <v>-4.193441129438268</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.706679842174154</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89779070003435</v>
+        <v>-40.88870464186219</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4954809148842151</v>
+        <v>-0.5212858437852572</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.383462812883081</v>
+        <v>-4.400168591309123</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.292208351919081</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31955251048547</v>
+        <v>-43.31387045105216</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4123447918392546</v>
+        <v>-0.437848597774937</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.703491063546233</v>
+        <v>-4.719489857618822</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.876913528150611</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.7995226993709</v>
+        <v>-45.7997714531249</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5634692435412986</v>
+        <v>-0.5796251452479886</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.944834574130611</v>
+        <v>-4.965441858803487</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.496160858795847</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20232685530721</v>
+        <v>-48.20291600893508</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.5851370047443553</v>
+        <v>-0.6080878116259011</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.298169643223114</v>
+        <v>-5.324825571808868</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.144620282052371</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.4901020384761</v>
+        <v>-50.49638634384014</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7103386968197817</v>
+        <v>-0.731587504331903</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.619219093507921</v>
+        <v>-5.642916161651445</v>
       </c>
     </row>
   </sheetData>
